--- a/A3 - escoria/tratamento.xlsx
+++ b/A3 - escoria/tratamento.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84586547-3208-4BDA-A396-6CD14F4A65C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D233D8-643C-4A5F-AF23-1C77E75552D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,10 +11,10 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Plan1!$E$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Plan1!$E$2:$E$74</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Plan1!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Plan1!$B$2:$B$74</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Plan1!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Plan1!$B$2:$B$74</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Plan1!$E$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Plan1!$E$2:$E$74</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -2731,7 +2731,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2769,7 +2769,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AE582C71-A888-454F-86A2-796C8767D210}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Pixels Agregados</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2797,7 +2797,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2835,7 +2835,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4BA47C86-0753-4CAA-A26D-419A10AC03AF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Cobrimento</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6176,8 +6176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
